--- a/oil_price.xlsx
+++ b/oil_price.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maln\Documents\GitHub\housing_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmak\Documents\GitHub\housing_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08950A9-94CD-47B8-8A01-3B675B979513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2070" windowWidth="17520" windowHeight="12765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2070" windowWidth="17520" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="Long Term Outlook" sheetId="3" r:id="rId2"/>
     <sheet name="aggregate" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -61,7 +61,7 @@
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$P$143</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Short-Term Energy Outlook, April 2020</t>
   </si>
@@ -308,18 +308,27 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Cubic</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +391,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -475,6 +492,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -485,7 +517,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -571,12 +603,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -4645,49 +4686,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+      <selection activeCell="L91" sqref="L91:L112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="9" width="9.1328125" style="1"/>
+    <col min="10" max="11" width="9.1328125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="9.1328125" style="1"/>
+    <col min="16" max="16" width="12.265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.86328125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N1" s="2"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="D3" s="6"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="Q5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q6" s="9" t="s">
         <v>2</v>
       </c>
@@ -4695,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +4745,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
@@ -4717,7 +4758,7 @@
       </c>
       <c r="I25" s="38"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
@@ -4739,7 +4780,7 @@
       </c>
       <c r="I27" s="39"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B28" s="13" t="s">
         <v>12</v>
       </c>
@@ -4766,7 +4807,7 @@
       </c>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="17">
         <v>42005</v>
       </c>
@@ -4795,7 +4836,7 @@
       </c>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="22">
         <v>42036</v>
       </c>
@@ -4824,7 +4865,7 @@
       </c>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="22">
         <v>42064</v>
       </c>
@@ -4853,7 +4894,7 @@
       </c>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="22">
         <v>42095</v>
       </c>
@@ -4882,7 +4923,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="22">
         <v>42125</v>
       </c>
@@ -4911,7 +4952,7 @@
       </c>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <v>42156</v>
       </c>
@@ -4940,7 +4981,7 @@
       </c>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="22">
         <v>42186</v>
       </c>
@@ -4969,7 +5010,7 @@
       </c>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="22">
         <v>42217</v>
       </c>
@@ -4998,7 +5039,7 @@
       </c>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="22">
         <v>42248</v>
       </c>
@@ -5027,7 +5068,7 @@
       </c>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="22">
         <v>42278</v>
       </c>
@@ -5056,7 +5097,7 @@
       </c>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="22">
         <v>42309</v>
       </c>
@@ -5085,7 +5126,7 @@
       </c>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="22">
         <v>42339</v>
       </c>
@@ -5114,7 +5155,7 @@
       </c>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="22">
         <v>42370</v>
       </c>
@@ -5143,7 +5184,7 @@
       </c>
       <c r="M41" s="16"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="22">
         <v>42401</v>
       </c>
@@ -5172,7 +5213,7 @@
       </c>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="22">
         <v>42430</v>
       </c>
@@ -5201,7 +5242,7 @@
       </c>
       <c r="M43" s="16"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="22">
         <v>42461</v>
       </c>
@@ -5230,7 +5271,7 @@
       </c>
       <c r="M44" s="16"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="22">
         <v>42491</v>
       </c>
@@ -5259,7 +5300,7 @@
       </c>
       <c r="M45" s="16"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="22">
         <v>42522</v>
       </c>
@@ -5288,7 +5329,7 @@
       </c>
       <c r="M46" s="16"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="22">
         <v>42552</v>
       </c>
@@ -5317,7 +5358,7 @@
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="22">
         <v>42583</v>
       </c>
@@ -5346,7 +5387,7 @@
       </c>
       <c r="M48" s="16"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="22">
         <v>42614</v>
       </c>
@@ -5375,7 +5416,7 @@
       </c>
       <c r="M49" s="16"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="22">
         <v>42644</v>
       </c>
@@ -5404,7 +5445,7 @@
       </c>
       <c r="M50" s="16"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="22">
         <v>42675</v>
       </c>
@@ -5433,7 +5474,7 @@
       </c>
       <c r="M51" s="16"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="22">
         <v>42705</v>
       </c>
@@ -5462,7 +5503,7 @@
       </c>
       <c r="M52" s="16"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="22">
         <v>42736</v>
       </c>
@@ -5491,7 +5532,7 @@
       </c>
       <c r="M53" s="16"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="22">
         <v>42767</v>
       </c>
@@ -5520,7 +5561,7 @@
       </c>
       <c r="M54" s="16"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="22">
         <v>42795</v>
       </c>
@@ -5549,7 +5590,7 @@
       </c>
       <c r="M55" s="16"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="22">
         <v>42826</v>
       </c>
@@ -5578,7 +5619,7 @@
       </c>
       <c r="M56" s="16"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="22">
         <v>42856</v>
       </c>
@@ -5607,7 +5648,7 @@
       </c>
       <c r="M57" s="16"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="22">
         <v>42887</v>
       </c>
@@ -5636,7 +5677,7 @@
       </c>
       <c r="M58" s="16"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="22">
         <v>42917</v>
       </c>
@@ -5665,7 +5706,7 @@
       </c>
       <c r="M59" s="16"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="22">
         <v>42948</v>
       </c>
@@ -5694,7 +5735,7 @@
       </c>
       <c r="M60" s="16"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="22">
         <v>42979</v>
       </c>
@@ -5723,7 +5764,7 @@
       </c>
       <c r="M61" s="16"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="22">
         <v>43009</v>
       </c>
@@ -5752,7 +5793,7 @@
       </c>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="22">
         <v>43040</v>
       </c>
@@ -5781,7 +5822,7 @@
       </c>
       <c r="M63" s="16"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="22">
         <v>43070</v>
       </c>
@@ -5810,7 +5851,7 @@
       </c>
       <c r="M64" s="16"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="22">
         <v>43101</v>
       </c>
@@ -5839,7 +5880,7 @@
       </c>
       <c r="M65" s="16"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="22">
         <v>43132</v>
       </c>
@@ -5868,7 +5909,7 @@
       </c>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="22">
         <v>43160</v>
       </c>
@@ -5897,7 +5938,7 @@
       </c>
       <c r="M67" s="16"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="22">
         <v>43191</v>
       </c>
@@ -5926,7 +5967,7 @@
       </c>
       <c r="M68" s="16"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="22">
         <v>43221</v>
       </c>
@@ -5955,7 +5996,7 @@
       </c>
       <c r="M69" s="16"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="22">
         <v>43252</v>
       </c>
@@ -5984,7 +6025,7 @@
       </c>
       <c r="M70" s="16"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="22">
         <v>43282</v>
       </c>
@@ -6013,7 +6054,7 @@
       </c>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="22">
         <v>43313</v>
       </c>
@@ -6042,7 +6083,7 @@
       </c>
       <c r="M72" s="16"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="22">
         <v>43344</v>
       </c>
@@ -6071,7 +6112,7 @@
       </c>
       <c r="M73" s="16"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="22">
         <v>43374</v>
       </c>
@@ -6100,7 +6141,7 @@
       </c>
       <c r="M74" s="16"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="22">
         <v>43405</v>
       </c>
@@ -6129,7 +6170,7 @@
       </c>
       <c r="M75" s="16"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="22">
         <v>43435</v>
       </c>
@@ -6158,7 +6199,7 @@
       </c>
       <c r="M76" s="16"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="22">
         <v>43466</v>
       </c>
@@ -6194,7 +6235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" s="22">
         <v>43497</v>
       </c>
@@ -6230,7 +6271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" s="22">
         <v>43525</v>
       </c>
@@ -6266,7 +6307,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" s="22">
         <v>43556</v>
       </c>
@@ -6302,7 +6343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B81" s="22">
         <v>43586</v>
       </c>
@@ -6338,7 +6379,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B82" s="22">
         <v>43617</v>
       </c>
@@ -6374,7 +6415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83" s="22">
         <v>43647</v>
       </c>
@@ -6410,7 +6451,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84" s="22">
         <v>43678</v>
       </c>
@@ -6446,7 +6487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85" s="22">
         <v>43709</v>
       </c>
@@ -6482,7 +6523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B86" s="22">
         <v>43739</v>
       </c>
@@ -6518,7 +6559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="22">
         <v>43770</v>
       </c>
@@ -6554,7 +6595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="22">
         <v>43800</v>
       </c>
@@ -6590,7 +6631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="22">
         <v>43831</v>
       </c>
@@ -6626,7 +6667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="22">
         <v>43862</v>
       </c>
@@ -6662,7 +6703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="22">
         <v>43891</v>
       </c>
@@ -6697,8 +6738,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L91" s="37">
+        <f>AVERAGE(C89:C91)</f>
+        <v>45.782566666666668</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="22">
         <v>43922</v>
       </c>
@@ -6734,7 +6779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="22">
         <v>43952</v>
       </c>
@@ -6770,7 +6815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="22">
         <v>43983</v>
       </c>
@@ -6813,7 +6858,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B95" s="22">
         <v>44013</v>
       </c>
@@ -6849,7 +6894,7 @@
         <v>65.826741319006842</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B96" s="22">
         <v>44044</v>
       </c>
@@ -6885,7 +6930,7 @@
         <v>69.476315372115693</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B97" s="22">
         <v>44075</v>
       </c>
@@ -6928,7 +6973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B98" s="22">
         <v>44105</v>
       </c>
@@ -6964,7 +7009,7 @@
         <v>74.136858377832851</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B99" s="22">
         <v>44136</v>
       </c>
@@ -7000,7 +7045,7 @@
         <v>75.973013354389678</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B100" s="22">
         <v>44166</v>
       </c>
@@ -7047,7 +7092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="22">
         <v>44197</v>
       </c>
@@ -7083,7 +7128,7 @@
         <v>79.748883884484741</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B102" s="22">
         <v>44228</v>
       </c>
@@ -7119,7 +7164,7 @@
         <v>80.512829690483997</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B103" s="22">
         <v>44256</v>
       </c>
@@ -7162,7 +7207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B104" s="22">
         <v>44287</v>
       </c>
@@ -7198,7 +7243,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B105" s="22">
         <v>44317</v>
       </c>
@@ -7234,7 +7279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106" s="22">
         <v>44348</v>
       </c>
@@ -7277,7 +7322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="22">
         <v>44378</v>
       </c>
@@ -7313,7 +7358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="22">
         <v>44409</v>
       </c>
@@ -7349,7 +7394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="22">
         <v>44440</v>
       </c>
@@ -7392,7 +7437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B110" s="22">
         <v>44470</v>
       </c>
@@ -7428,7 +7473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B111" s="22">
         <v>44501</v>
       </c>
@@ -7464,7 +7509,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B112" s="26">
         <v>44531</v>
       </c>
@@ -7511,7 +7556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
@@ -7521,7 +7566,7 @@
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
@@ -7531,7 +7576,7 @@
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -7541,7 +7586,7 @@
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -7551,7 +7596,7 @@
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
@@ -7561,7 +7606,7 @@
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
@@ -7571,7 +7616,7 @@
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
@@ -7581,7 +7626,7 @@
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B120" s="22"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
@@ -7591,7 +7636,7 @@
       <c r="H120" s="23"/>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B121" s="22"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
@@ -7601,7 +7646,7 @@
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B122" s="22"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
@@ -7611,7 +7656,7 @@
       <c r="H122" s="23"/>
       <c r="I122" s="23"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -7621,7 +7666,7 @@
       <c r="H123" s="23"/>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -7631,12 +7676,12 @@
       <c r="H124" s="23"/>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B125" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="40" t="s">
         <v>20</v>
       </c>
@@ -7652,7 +7697,7 @@
       <c r="L126" s="40"/>
       <c r="M126" s="40"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B127" s="40"/>
       <c r="C127" s="40"/>
       <c r="D127" s="40"/>
@@ -7666,21 +7711,21 @@
       <c r="L127" s="40"/>
       <c r="M127" s="40"/>
     </row>
-    <row r="134" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="15" x14ac:dyDescent="0.4">
       <c r="B134" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="34"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="str">
         <f>(100*$H$25)&amp;"% NYMEX futures upper confidence interval"</f>
         <v>95% NYMEX futures upper confidence interval</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="str">
         <f>(100*$H$25)&amp;"% NYMEX futures lower confidence interval"</f>
         <v>95% NYMEX futures lower confidence interval</v>
@@ -7734,7 +7779,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" errorStyle="information" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Value must be less than 100%" sqref="H25:I25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" errorStyle="information" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Value must be less than 100%" sqref="H25:I25">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -7746,19 +7791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DA09E4-AE91-4374-8121-00235B415F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="35"/>
       <c r="B1" s="35" t="s">
         <v>22</v>
@@ -7776,7 +7821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
@@ -7790,7 +7835,7 @@
         <v>91.016642054024132</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
@@ -7804,7 +7849,7 @@
         <v>124.65848957090451</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
@@ -7818,7 +7863,7 @@
         <v>122.7559326614995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>28</v>
       </c>
@@ -7832,7 +7877,7 @@
         <v>117.458381982105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="36" t="s">
         <v>29</v>
       </c>
@@ -7846,7 +7891,7 @@
         <v>105.112768219815</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="36" t="s">
         <v>30</v>
       </c>
@@ -7860,7 +7905,7 @@
         <v>55.01970516411388</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="36" t="s">
         <v>31</v>
       </c>
@@ -7874,7 +7919,7 @@
         <v>45.418394704112217</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="36" t="s">
         <v>32</v>
       </c>
@@ -7888,7 +7933,7 @@
         <v>55.230666916055789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="36" t="s">
         <v>33</v>
       </c>
@@ -7902,7 +7947,7 @@
         <v>71.210844574414537</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="36" t="s">
         <v>34</v>
       </c>
@@ -7916,7 +7961,7 @@
         <v>59.719946344012193</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="36" t="s">
         <v>35</v>
       </c>
@@ -7944,7 +7989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="36" t="s">
         <v>36</v>
       </c>
@@ -7972,7 +8017,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
@@ -7997,7 +8042,7 @@
         <v>50.740879610104336</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="36" t="s">
         <v>38</v>
       </c>
@@ -8022,7 +8067,7 @@
         <v>56.554416972075416</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="36" t="s">
         <v>39</v>
       </c>
@@ -8047,7 +8092,7 @@
         <v>57.057799695621398</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="36" t="s">
         <v>40</v>
       </c>
@@ -8065,7 +8110,7 @@
         <v>55.02994062895587</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="36" t="s">
         <v>41</v>
       </c>
@@ -8083,7 +8128,7 @@
         <v>55.884677813965453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="36" t="s">
         <v>42</v>
       </c>
@@ -8101,7 +8146,7 @@
         <v>56.697636060996352</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="36" t="s">
         <v>43</v>
       </c>
@@ -8119,7 +8164,7 @@
         <v>57.479612085465405</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
         <v>44</v>
       </c>
@@ -8137,7 +8182,7 @@
         <v>58.237656535416193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="36" t="s">
         <v>45</v>
       </c>
@@ -8155,7 +8200,7 @@
         <v>58.976635367418126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="36" t="s">
         <v>46</v>
       </c>
@@ -8173,7 +8218,7 @@
         <v>59.700052252956802</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="36" t="s">
         <v>47</v>
       </c>
@@ -8191,7 +8236,7 @@
         <v>60.41051619112914</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="36" t="s">
         <v>48</v>
       </c>
@@ -8209,7 +8254,7 @@
         <v>61.110023758569298</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="36" t="s">
         <v>49</v>
       </c>
@@ -8227,7 +8272,7 @@
         <v>61.800137862533475</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="36" t="s">
         <v>50</v>
       </c>
@@ -8245,7 +8290,7 @@
         <v>62.482105515114654</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="36" t="s">
         <v>51</v>
       </c>
@@ -8263,7 +8308,7 @@
         <v>63.15693804604205</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="36" t="s">
         <v>52</v>
       </c>
@@ -8281,7 +8326,7 @@
         <v>63.825467296206362</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
         <v>53</v>
       </c>
@@ -8299,7 +8344,7 @@
         <v>64.488385952714779</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="36" t="s">
         <v>54</v>
       </c>
@@ -8317,7 +8362,7 @@
         <v>65.146277120155887</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="36" t="s">
         <v>55</v>
       </c>
@@ -8335,7 +8380,7 @@
         <v>65.799636407526705</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
         <v>56</v>
       </c>
@@ -8353,7 +8398,7 @@
         <v>66.448888699201802</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="36" t="s">
         <v>57</v>
       </c>
@@ -8371,7 +8416,7 @@
         <v>67.09440107806482</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="36" t="s">
         <v>58</v>
       </c>
@@ -8389,7 +8434,7 @@
         <v>67.73649291599898</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
         <v>59</v>
       </c>
@@ -8407,7 +8452,7 @@
         <v>68.375443847136694</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="36" t="s">
         <v>60</v>
       </c>
@@ -8425,7 +8470,7 @@
         <v>69.01150013666927</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="36" t="s">
         <v>61</v>
       </c>
@@ -8443,7 +8488,7 @@
         <v>69.644879818515165</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="36" t="s">
         <v>62</v>
       </c>
@@ -8461,7 +8506,7 @@
         <v>70.275776877441245</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="36" t="s">
         <v>63</v>
       </c>
@@ -8479,7 +8524,7 @@
         <v>70.904364681732801</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="36" t="s">
         <v>64</v>
       </c>
@@ -8497,7 +8542,7 @@
         <v>71.530798822366023</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="36" t="s">
         <v>65</v>
       </c>
@@ -8517,20 +8562,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853918AC-EBDB-45EF-BF75-6CD3E5E9B438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -8538,7 +8584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -8546,7 +8592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -8554,7 +8600,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -8562,7 +8608,7 @@
         <v>50.740879610104336</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -8570,7 +8616,7 @@
         <v>56.554416972075416</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -8580,5 +8626,319 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="41">
+        <v>43921</v>
+      </c>
+      <c r="B2" s="35">
+        <v>45.782566666666668</v>
+      </c>
+      <c r="C2" s="35">
+        <v>45.782566666666668</v>
+      </c>
+      <c r="D2" s="35">
+        <v>45.782566666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="41">
+        <v>44012</v>
+      </c>
+      <c r="B3" s="35">
+        <v>20.166666666666668</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="41">
+        <v>44104</v>
+      </c>
+      <c r="B4" s="35">
+        <v>23.5</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="41">
+        <v>44196</v>
+      </c>
+      <c r="B5" s="42">
+        <v>29</v>
+      </c>
+      <c r="C5" s="42">
+        <v>29</v>
+      </c>
+      <c r="D5" s="42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="41">
+        <v>44286</v>
+      </c>
+      <c r="B6" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="C6" s="42">
+        <v>33.697933999999997</v>
+      </c>
+      <c r="D6" s="42">
+        <v>33.352777000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="41">
+        <v>44377</v>
+      </c>
+      <c r="B7" s="35">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="C7" s="42">
+        <v>37.615212999999997</v>
+      </c>
+      <c r="D7" s="42">
+        <v>37.236539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="41">
+        <v>44469</v>
+      </c>
+      <c r="B8" s="35">
+        <v>43.166666666666664</v>
+      </c>
+      <c r="C8" s="42">
+        <v>40.854314000000002</v>
+      </c>
+      <c r="D8" s="42">
+        <v>40.634135999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="41">
+        <v>44561</v>
+      </c>
+      <c r="B9" s="42">
+        <v>43.5</v>
+      </c>
+      <c r="C9" s="42">
+        <v>43.5</v>
+      </c>
+      <c r="D9" s="42">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="41">
+        <v>44651</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="42">
+        <v>45.640990000000002</v>
+      </c>
+      <c r="D10" s="42">
+        <v>45.789042000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="41">
+        <v>44742</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="42">
+        <v>47.483365999999997</v>
+      </c>
+      <c r="D11" s="42">
+        <v>47.586139000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="41">
+        <v>44834</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="42">
+        <v>49.146523000000002</v>
+      </c>
+      <c r="D12" s="42">
+        <v>49.147213999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="41">
+        <v>44926</v>
+      </c>
+      <c r="B13" s="42">
+        <v>50.740879999999997</v>
+      </c>
+      <c r="C13" s="42">
+        <v>50.740879999999997</v>
+      </c>
+      <c r="D13" s="42">
+        <v>50.740879999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="41">
+        <v>45016</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="42">
+        <v>52.324658999999997</v>
+      </c>
+      <c r="D14" s="42">
+        <v>52.331508999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="41">
+        <v>45107</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="42">
+        <v>53.891418000000002</v>
+      </c>
+      <c r="D15" s="42">
+        <v>53.971595999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="41">
+        <v>45199</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="42">
+        <v>55.340811000000002</v>
+      </c>
+      <c r="D16" s="42">
+        <v>55.457835000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="41">
+        <v>45291</v>
+      </c>
+      <c r="B17" s="42">
+        <v>56.554417000000001</v>
+      </c>
+      <c r="C17" s="42">
+        <v>56.554417000000001</v>
+      </c>
+      <c r="D17" s="42">
+        <v>56.554417000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="41">
+        <v>45382</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="42">
+        <v>57.424036000000001</v>
+      </c>
+      <c r="D18" s="42">
+        <v>57.255696999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="41">
+        <v>45473</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="42">
+        <v>57.866726999999997</v>
+      </c>
+      <c r="D19" s="42">
+        <v>57.575688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="41">
+        <v>45565</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="42">
+        <v>57.780732</v>
+      </c>
+      <c r="D20" s="42">
+        <v>57.511600999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="41">
+        <v>45657</v>
+      </c>
+      <c r="B21" s="42">
+        <v>57.0578</v>
+      </c>
+      <c r="C21" s="42">
+        <v>57.0578</v>
+      </c>
+      <c r="D21" s="42">
+        <v>57.0578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>